--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="9645"/>
   </bookViews>
   <sheets>
-    <sheet name="Тест 17.02 (baseline)" sheetId="1" r:id="rId1"/>
+    <sheet name="17.02.2026(baseline)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="9645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="17.02.2026(baseline)" sheetId="1" r:id="rId1"/>
+    <sheet name="20.02.2026(baseline+ru модели)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
   <si>
     <t>Вопрос</t>
   </si>
@@ -362,6 +363,301 @@
   </si>
   <si>
     <t>Требования верные, но неполные. Также была взята лишняя информация о таблицах</t>
+  </si>
+  <si>
+    <t>Оценка работы ресивера (0-3)</t>
+  </si>
+  <si>
+    <t>Оценка работы генератора (0-3)</t>
+  </si>
+  <si>
+    <t>Оценка реранкинга (0-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Для основного текста курсовой работы рекомендуется использовать шрифт Times New Roman размером 14. При этом абзацный отступ составляет 1,25 см. Для вписывания отдельных слов, формул и условных знаков используются черная паста, тушь или чернилами чертёжным шрифтом по ГОСТ 2.304 высотой не менее 2,5 мм и не более 7,0 мм.</t>
+  </si>
+  <si>
+    <t>Чанки выбраны верно. Информация достаточная и полная.</t>
+  </si>
+  <si>
+    <t>В выпускной квалификационной работе или курсовом проекте страницы нумеруются арабскими цифрами. На титульном листе номера страниц не проставляют, на последующих страницах (начиная со второй) номер страницы проставляют внизу по центру без точки.
+В списке использованных источников при переносах на другую строку не допускаются разделение инициалов авторов, обозначения числа страниц и цифр и т. п. Рекомендуется между инициалами и фамилией автора всегда ставить неразрывный пробел (Ctrl+Shift+пробел).
+В соответствии с ГОСТ 7.1 [9] сведения об источниках следует нумеровать арабскими цифрами с точкой и начинать с абзацного отступа. Список печатают тем же шрифтом, что и всю работу через 1.5 интервал. В конце библиографического описания каждого источника ставится точка.</t>
+  </si>
+  <si>
+    <t>Выбраны верно чанки, но дана лишняя информация о нумерации источников.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В соответствии с документом, не указанным в вопросе, для межстрочного интервала между заголовками и текстом на слайдах рекомендуется использовать 12 пунктировки.
+Если конкретные цифры и значения не указаны в документе, то можно использовать межстрочный интервал от 10 до 18 пунктирок (в зависимости от размера шрифта).
+В случае использования ГОСТов по оформлению в области российского образования, следует обратить внимание на ГОСТ Р 5.083-2004 "Документы и сведения. Оформление текста. Размеры бумаги, линейные размеры, межстрочный интервал, межбуквенный интервал, межсловный интервал, межслово-межбуквенный интервал, межпараграфный интервал, межподзаголовочного интервал, межстрочный интервал в таблицах и списках", где определены рекомендуемые значения для разных типов документов.</t>
+  </si>
+  <si>
+    <t>Не были выбраны нужные чанки в принципе, хотя порядок изменился.</t>
+  </si>
+  <si>
+    <t>В соответствии с указанными правилами, заголовки в курсовой работе или дипломной работе оформляются следующим образом:
+- Заголовок глав (разделов) пишется крупным шрифтом и выделяется от текста большим интервалом.
+- Заголовок подразделов (подразделов раздела) пишется средним шрифтом, с меньшим интервалом по сравнению с заголовком глав.
+- При оформлении перечислений используются буквы русского алфавита и арабские цифры со скобкой, как указано в приведенном выше примере.
+В случае с подразделом "Список использованных источников", заголовки не используются, вместо этого используется пункт 2.7 "Приложения".
+При этом, в соответствии с ГОСТ Р 50683-2014 "Документы научно-технической документации. Оформление и структура", заголовки глав должны быть выделены крупным шрифтом, а заголовки подразделов - средним шрифтом.
+В случае с подразделом "Список использованных источников", в соответствии с ГОСТ Р 7.0.12-2015 "Документы научно-технической документации. Стиль и структура", заголовки не используются, вместо этого используется пункт 3.4 "Библиография".</t>
+  </si>
+  <si>
+    <t>Реранкер ухудшил порядок чанков, как следствие - неполная информация.</t>
+  </si>
+  <si>
+    <t>В соответствии с документом, не указанным конкретный ГОСТ для оформления курсовых проектов и выпускных квалификационных работ. Однако, в приложении В указано, что объем реферата составляет 0,75 - 1 страницы.
+Помимо этого, нет конкретной информации о размерах полей страницы. Тем не менее, общий формат документа для курсовых проектов и выпускных квалификационных работ в России состоит из следующих элементов:
+* Титульный лист (1 страница)
+* Содержание (1 страница)
+* Введение (не более 2-х страниц)
+* Главная часть (разделы, подразделы и т.д.)
+* Заключение (не более 1 страницы)
+* Список использованных источников (не более 1 страницы)
+* Приложения (если есть)
+Таким образом, размер полей страницы зависит от объема каждого элемента документа и не указан в документе.</t>
+  </si>
+  <si>
+    <t>Не найдены нужные чанки, галлюцинации неросети.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В соответствии с указанным ГОСТом 2.304, размер шрифта в тексте выпускной квалификационной работы или курсового проекта должен быть не менее 2,5 мм и не более 7,0 мм.</t>
+  </si>
+  <si>
+    <t>Верно выбраны подходящие чанки. Но ответ указан неполный.</t>
+  </si>
+  <si>
+    <t>Да, можно добавлять иллюстрации в работу. Согласно указанному ГОСТу 8.523-2004 "Документы научно-технической документации. Оформление текста", иллюстрации могут располагаться либо на странице непосредственно в тексте, либо на отдельных листах. Иллюстрации должны быть ссылаются в тексте работы, а при ссылке на иллюстрации следует писать "...в соответствии с рисунком 2" при сквозной нумерации их в работе. Слово "рисунок" без сокращения в тексте печатают со строчной буквы, а в подписи под рисунком – с прописной.
+В дополнение к этому, по указанному ГОСТу 7.1-2003 "Документы научно-технической документации. Оформление текста", при описании необходимо сопровождать иллюстрированным материалом (таблицы, чертежи, схемы, графики, фотографии). Следует приводить только такие рисунки и фотографии (не более 20), без которых невозможно понимание текста.
+Таким образом, для добавления иллюстраций в работу следует:
+1. Расположить их на страницах непосредственно в тексте или на отдельных листах;
+2. Ссылаться на них в тексте работы;
+3. Использовать не более 20 иллюстраций, без которых невозможно понимание текста.</t>
+  </si>
+  <si>
+    <t>Достаточный и полный ответ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На титульном листе должны быть следующие элементы:
+1. Формально-имявующая часть (название работы, автора, научного руководителя, учебного заведения и т.д.).
+2. Название учебного заведения и его адрес.
+3. Город, где расположено учебное заведение.
+4. Формально-имявующая часть (название работы, автора, научного руководителя, специальность, курс, группу и т.д.).
+5. Название дисциплины или предмета, по которому выполняется работа.
+6. Год выполнения работы.
+7. Имя организации, которая осуществляет аттестацию работы (если это не учебное заведение).
+8. Название и адрес организации, которая осуществляет аттестацию работы (если это не учебное заведение).
+9. Город, где расположена организация, осуществляющая аттестацию работы (если это не учебное заведение).
+10. Название и адрес организации, которая финансирует работу (если таковой имеется).
+11. Город, где расположена организация, финансирующая работу (если таковой имеется).
+12. Номер документа (номер курсового проекта или выпускной квалификационной работы).
+13. Название и адрес организации, которая выдает документ (если это не учебное заведение).
+14. Город, где расположена организация, выдающая документ (если это не учебное заведение).
+15. Название и адрес организации, которая осуществляет регистрацию работы (если таковой имеется).
+16. Город, где расположена организация, осуществляющая регистрацию работы (если таковой имеется).
+17. Название и адрес организации, которая осуществляет электронную публикацию работы (если таковой имеется).
+18. Город, где расположена организация, осуществляющая электронную публикацию работы (если таковой имеется).
+19. Название и адрес организации, которая осуществляет хранение работы в архиве (если таковой имеется).
+20. Город, где расположена организация, осуществляющая хранение работы в архиве (если таковой имеется).
+Все эти элементы должны быть расположены по правилам ГОСТ 7.1-2003 "Графическое оформление документов. Общие требования".</t>
+  </si>
+  <si>
+    <t>Найдены верные чанки, но информация избыточная.</t>
+  </si>
+  <si>
+    <t>В документе не указаны конкретные требования по объему работы. Однако, в целом, для курсовых проектов и выпускных квалификационных работ существуют определенные стандарты по объёму текста.
+По ГОСТу 8.531-2014 "Курсовая работа" рекомендуется, чтобы длина текста составляла не менее 10 и не более 20 страниц А4 формата с учётом всех элементов оформления (заголовки, рисунки, таблицы, схемы, графики, фотографии).
+Для выпускной квалификационной работы по ГОСТу 8.532-2014 "Работа дипломная" рекомендуется, чтобы длина текста составляла не менее 30 и не более 60 страниц А4 формата с учётом всех элементов оформления.
+Однако эти стандарты могут быть изменены в зависимости от специфики конкретной дисциплины, объема и сложности исследования. Поэтому рекомендуется обратиться к руководителю по работе или учебному плану для получения точных требований по объёму работы в конкретном случае.</t>
+  </si>
+  <si>
+    <t>Есть чанк с нужной информацией, но почему-то не видит его.</t>
+  </si>
+  <si>
+    <t>В документе не указано количество страниц, которые должны быть в курсовой работе или выпускной квалификационной работе. Количество страниц зависит от объема материала и требований конкретного учебного заведения. Однако, учитывая правила оформления, указанные в документе, следует избегать пустых строк и полупустых страниц.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для поиска темы для проекта необходимо согласовать ее с заведующим выпускающей кафедрой не позднее седьмого учебного семестра. Кафедры формируют списки предлагаемых тем, зафиксированных в специальном журнале. Студент может предложить для ВКР тему, связанную со спецификой своей работы. После выбора темы студент пишет заявление на имя заведующего кафедрой с указанием темы и руководителя.
+</t>
+  </si>
+  <si>
+    <t>Ответ достаточный и полный.</t>
+  </si>
+  <si>
+    <t>В соответствии с указанным ГОСТом 2.304, формулы и условные знаки могут быть вписаны в текст выпускной квалификационной работы или курсового проекта только чертёжным шрифтом, используя чёрную пасту, тушью или чернилами. При этом высота шрифта должна быть не менее 2,5 мм и не более 7,0 мм, а плотность вписанного текста должна быть максимально приближена к плотности основного текста.
+Формулы следует выделять из текста в отдельную строку и нумеровать арабскими цифрами порядковой нумерацией в пределах всей работы или проекта в круглых скобках в крайнем правом положении на строке.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Для курсового или дипломного проекта в области российского образования, согласно указанному документу, структура должна включать следующие элементы:
+1. **Заголовочная страница** (одностраничное оформление) с информацией об авторе, руководителе, учебном заведении и датах.
+2. **Содержание** (одностраничное оформление) с пронумерованным перечнем разделов и подразделов документа.
+3. **Введение** (1-2 страницы), которое содержит краткое описание цели, задачи и значения проекта.
+4. **Литература** (одностраничное оформление) с перечнем использованных источников.
+5. **Глава 1: Постановка задачи с формулировкой отдельных пунктов, подлежащих решению.**
+6. **Глава 2: Объяснение решённых задач, описание полученных решений.**
+7. **Глава 3: Демонстрация разработанного макета, устройства, средств, программы.**
+8. **Глава 4: Заключение, выводы (по пунктам).**
+9. **Литература по приложениям** (одностраничное оформление) с перечнем использованных источников в приложениях.
+10. **Приложение Е: Пример содержания введения.**
+11. **Список иллюстраций** (одностраничное оформление) с пронумерованным перечнем графиков, формул, структурных, функциональных, принципиальных схем, таблиц, диаграмм и кратких пояснений.
+12. **Список аббревиатур** (одностраничное оформление) с перечнем использованных аббревиатур и их расшифровками.
+13. **Список литературы** (одностраничное оформление) с перечнем использованных источников в алфавитном порядке.
+14. **Приложения** (каждое приложение на отдельной странице) с подробными материалами, таблицами и графиками, которые не могут быть включены в основную часть документа из-за объёма.
+15. **Заключительная страница** (одностраничное оформление) с подписью автора, руководителя и датой выдачи диплома или курсовой работы.</t>
+  </si>
+  <si>
+    <t>Ответ похож на правду, но слишком детализированный.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да, есть отличия между курсовым проектом и Выпускной Квалификационной Работой (ВКР).
+Основное отличие заключается в целях, содержании и процедуре их выполнения.
+1. **Цели**: ВКР является окончательным этапом обучения студента по специальности и предназначена для получения квалификации. Курсовой проект, в свою очередь, является частью учебного процесса и имеет целью подготовку студента к самостоятельной работе над ВКР.
+2. **Содержание**: ВКР носит исследовательский характер и должна представлять собой оригинальный вклад в науку или практику. Курсовой проект, как правило, имеет более конкретное задание и может быть связан с конкретными учебными дисциплинами.
+3. **Процедура выполнения**: ВКР должна проходить рецензирование и защиту перед учёной стенографией, в то время как курсовой проект проходит на заседании кафедры без рецензирования.
+4. **Оформление**: Оба документа должны соответствовать требованиям к структуре и оформлению отчетов, но в случае с ВКР также применяются стандарты [1–10], которые не указаны для курсовых проектов.
+5. **Количество страниц**: По количеству страниц, как правило, ВКР содержит большее число страниц по сравнению с курсовыми проектами. Например, в ГОСТ Р 8.091-2014 "Общие требования к структуре и оформлению отчетов" указано, что минимальная длина ВКР должна составлять 50 страниц, а для курсовых проектов нет такого требования.
+6. **Срок выполнения**: Срок выполнения ВКР обычно больше, чем срок выполнения курсового проекта. Например, в ГОСТ Р 8.091-2014 указано, что срок выполнения ВКР составляет не менее 6 месяцев, а для курсовых проектов нет такого требования.
+7. **Проверка**: Проверка ВКР проходит перед учёной стенографией, в то время как проверка курсового проекта может проходить на заседании кафедры или в рамках контрольных работ по учебным дисциплинам.
+8. **Защита**: Защита ВКР проходит перед учёной стенографией, а курсовой проект не подлежит защите.
+9. **Оценка**: Оценка ВКР осуществляется учёной стенографией, в то время как оценка курсового проекта может быть осуществлена преподавателем по конкретным дисциплинам.
+10. **Издание**: ВКР издаётся в виде отдельного издания и включается в диссертацию, а курсовой проект не издаётся в виде отдельного издания.</t>
+  </si>
+  <si>
+    <t>В ответе есть противоречащие данные: например, о защите проекта сначала на заседании кафедры, но потом тот факт, что он не подлежит защите. Также есть информация, кторой нет в документе (по поводу диссертации и т.п.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Для написания реферата следует соблюдать указанные требования:
+1. **Объект исследования или разработки**: Описывается предмет, на который проводится исследование или разработка. Например, "Интегрально-оптические модуляторы".
+2. **Цель работы**: Описывается цель, которую выполняет данная работа. Например, "Выявление особых свойств интегрально-оптических модуляторов".
+3. **Методы исследования**: Описываются методы, используемые для проведения исследования или разработки. Например, "Использование спектроскопии и лазерной техники".
+4. **Полученные результаты и их новизну, степень внедрения**: Описываются полученные результаты и их значимость, а также указывается степень внедрения результатов в практику. Например, "Получено новое понимание механизма работы интегрально-оптических модуляторов, что может привести к их усовершенствованию".
+5. **Область применения и рекомендации**: Описывается область применения полученных результатов и даются рекомендации по использованию этих результатов. Например, "Результаты могут быть использованы для усовершенствования технологий в области оптической связи".
+6. **Экономическую эффективность или значимость работы**: Описывается экономическая эффективность или значимость полученных результатов. Например, "Полученные результаты могут привести к уменьшению затрат на производство интегрально-оптических модуляторов и повышению их качества".
+7. **Убедительность аргументации**: Аргументы должны быть достоверными, обоснованными и подкреплены фактами.
+8. **Краткость и точность формулировок**: Формулировки должны быть короткими, точными и неоднозначной интерпретации не допускать.
+9. **Конкретность изложения результатов работы**: Результаты должны быть описаны конкретно и подробно.
+10. **Обоснованность рекомендаций и предложений**: Рекомендации и предложения должны быть обоснованы и соответствовать полученным результатам.
+Объём реферата составляет 0,75 – 1 страницы. Пример содержания и оформления реферата приведён в приложении В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Реферат должен содержать следующие элементы:
+- Вид работы (например, курсовая или дипломная работа)
+- Объем работы в количестве страниц (необходимо указать конкретное число)
+- Количество иллюстраций и таблиц (не более 20, как указано в документе)
+- Количество использованных источников
+- Перечень ключевых слов (слова или фразы, которые характеризуют основную тему работы)
+- Текст реферата, который должен дать представление о содержании и значимости работы.</t>
+  </si>
+  <si>
+    <t>Верно перечислены пункты с содержанием текста + общие рекомендации, но нет информации о структуре.</t>
+  </si>
+  <si>
+    <t>Понято слишком буквально: обязательные составляющие, но не содержание текста.</t>
+  </si>
+  <si>
+    <t>В оформлении курсовых проектов и выпускных квалификационных работ в области российского образования следует использовать обозначения единиц после их числовых значений с пробелом между последней цифрой числа и обозначением единицы, как указано в документе.
+Сокращения могут использоваться при оформлении списка использованных источников, но следует соблюдать правила по их использованию:
+- каждое сокращение должно быть указано в скобках после полного названия источника;
+- каждое сокращение должно быть определено в списке литературы, где должны быть приведены все полные названия источников и их соответствующие сокращения.
+Пример:
+- Автор, А. В. (2015). Название работы. Место издания: Издательство. – С. 1-200. (Система информации по литературе [СИЛ] – СИЛ)
+В списке литературы:
+- Система информации по литературе [СИЛ]. (Сокращение). – &lt;https://sil.ru/&gt;. (Дата обращения).</t>
+  </si>
+  <si>
+    <t>Верно выбраны чанки, ответ достаточный, верный и полный.</t>
+  </si>
+  <si>
+    <t>В документе не указано количество страниц, которые должны занимать ввод. Однако, по ГОСТ Р 52687-2013 "Курсовая работа (дипломная работа) в образовательных организациях" рекомендуется, что длина текста основной части работы составляет не менее 70% от общей длины документа. Ввод является частью введения и его длина должна быть соразмерна с длиной остальных частей введения.
+В случае, если введение включает в себя приложения (как в данном вопросе), то количество страниц может измениться в зависимости от объёма приложений и их формы представления. Однако, по ГОСТу, длина текста основной части должна составлять не менее 70% от общей длины документа, следовательно, количество страниц введения должно быть соразмерно с объёмом приложений.
+В целом, рекомендуется уточнять требования к длине введения и количеству страниц в конкретном учебном заведении или по конкретному предмету.</t>
+  </si>
+  <si>
+    <t>Путает информацию о введении с информацией об основной части.</t>
+  </si>
+  <si>
+    <t>В документе, который сопровождается иллюстрированным материалом, объём введения не указан явно. Однако, по ГОСТу 8.531-2014 "Курсовая работа (дипломная работа)" и ГОСТу 7.76-2013 "Работа диплома (диссертация)", введение должно содержать общую информацию о предмете, объекте исследования, целях и задачах работы, а также теоретическую базу, которая лежит в основе выполняемых исследований.
+Объём введения может составлять от 5 до 10 страниц (в зависимости от объема и сложности работы), но не должен превышать трети общего объёма работы. В случае, если в вопросе указано конкретное число страниц для введения, то можно привести соответствующие цифры и значения.</t>
+  </si>
+  <si>
+    <t>Галлюцинирует и не может дать конкретную информацию.</t>
+  </si>
+  <si>
+    <t>Основная часть курсовой работы или дипломной работы по русскому образованию должна содержать следующие элементы:
+1. **Обоснование выбора направления исследований** (около 2 страницы):
+   - Описание проблемы, которую решается в работе;
+   - Обсуждение предыдущих исследований и литературы по данной теме;
+   - Выбор направления исследований и обоснование его выбора.
+2. **Методы решения задач** (около 3 страниц):
+   - Описание используемых методов для решения задач, связанных с темой работы;
+   - Сравнительная оценка этих методов и выбор наиболее подходящего.
+3. **Теоретические исследования** (около 4 страниц):
+   - Анализ теории, связанной с темой работы;
+   - Обсуждение результатов предыдущих исследований по данной теме.
+4. **Экспериментальные исследования** (около 5 страниц):
+   - Описание проведенных экспериментов и методов их выполнения;
+   - Анализ полученных результатов и их интерпретация.
+5. **Методы расчёта** (если применимо):
+   - Описание используемых методов для расчёта характеристик объекта или системы, связанной с темой работы;
+   - Приведение формул и графиков, использованных в расчётах.
+6. **Принципы действия разработанных объектов** (если применимо):
+   - Описание принципов действия разработанного устройства или программы;
+   - Приведение схем, иллюстрирующих эти принципы.
+7. **Характеристики разработанных объектов** (если применимо):
+   - Описание характеристик разработанного устройства или программы;
+   - Приведение таблиц и диаграмм, изображающих эти характеристики.
+8. **Заключение** (около 1 страницы):
+   - Краткое обсуждение результатов работы;
+   - Выводы о значении работы для темы и практики.</t>
+  </si>
+  <si>
+    <t>Верно выбраны чанки, ответ достаточный, верный и полный. Но заключение является отдельным элементом.</t>
+  </si>
+  <si>
+    <t>Для работы в области российского образования можно использовать как печатные книги и статьи, так и электронные ресурсы. При составлении обзора рекомендуется использовать первоисточники за последние пять лет и в необходимых, обоснованных случаях более ранних.
+В списке использованных источников при переносах на другую строку не допускаются разделение инициалов авторов, обозначения числа страниц и цифр и т. п. Рекомендуется между инициалами и фамилией автора всегда ставить неразрывный пробел (Ctrl+Shift+Space).</t>
+  </si>
+  <si>
+    <t>Верно выбраны чанки, ответ достаточный для такой формулировки и верный.</t>
+  </si>
+  <si>
+    <t>В заключение необходимо включить выводы по каждому этапу исследования, выполненной в работе, а также выводы по работе в целом. Оценка эффективности должна быть дана для каждого этапа и для работы в целом. Необходимо подчеркнуть научную, практическую ценность результатов работы, степень внедрения, дать рекомендации по дальнейшему совершенствованию системы, технологии, метода.
+Примерно такой формат можно использовать:
+1. **Этап 1:** В ходе первого этапа была проведена исследовательская работа по [описание работы на этом этапе]. Результаты показали [результаты на этом этапе], что подтверждает [дополнительные ссылки или данные, если они имеются]. На основе полученных результатов были сделаны следующие выводы: [выводы на этом этапе]. Для дальнейшего совершенствования системы рекомендуется [рекомендации на этом этапе].
+2. **Этап 2:** В ходе второго этапа была проведена исследовательская работа по [описание работы на этом этапе]. Результаты показали [результаты на этом этапе], что подтверждает [дополнительные ссылки или данные, если они имеются]. На основе полученных результатов были сделаны следующие выводы: [выводы на этом этапе]. Для дальнейшего совершенствования системы рекомендуется [рекомендации на этом этапе].
+3. **Работа в целом:** В ходе всей работы были получены следующие результаты: [общие результаты работы]. Эти результаты подтверждают [дополнительные ссылки или данные, если они имеются]. На основе полученных результатов были сделаны следующие выводы: [выводы по работе в целом]. Для дальнейшего совершенствования системы рекомендуется [общая рекомендация по всей работе].
+Все выводы должны быть подкреплены достаточными данными и аргументами, а также ссылками на литературу или другие источники, если они имеются.</t>
+  </si>
+  <si>
+    <t>Ответ верный, дополнительная информация логически верная и не делает ответ неверным, но все равно лишняя.</t>
+  </si>
+  <si>
+    <t>В заключении курсовой работе или дипломной работе по российскому образованию должен содержаться:
+1. Выводы по каждому этапу (задаче исследования), выполненной в работе, которые должны включать результаты полученные во время исследований и их анализ.
+2. Выводы по работе в целом, который должен содержать общую оценку результатов и их значимость для решения задачи исследования.
+3. Оценку эффективности, которая должна включать сравнение полученных результатов с предполагаемыми или известными результатами других работ в области.
+4. Подчеркнуть научную, практическую ценность результатов работы, степень внедрения, дать рекомендации по дальнейшему совершенствованию системы, технологии, метода.
+Все выводы должны быть обоснованы и подкреплены доказательствами из работы.</t>
+  </si>
+  <si>
+    <t>Ответ в целом верный, в этот раз формулировка, приближенная к оригинальному тексту, позволила избежать избыточной генерации.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В соответствии с указанным описанием, требования к докладу и презентации следующие:
+1. Доклад должен сопровождаться иллюстрированными материалами (таблицами, чертежами, схемами, графиками, фотографиями), без которых невозможно понимание текста, не более 20 штук.
+2. Слайды должны быть пронумерованы.
+3. В докладе и презентации следует содержать:
+   - Постановка задачи с формулировкой отдельных пунктов, подлежащих решению (1 – 1,5 мин.).
+   - Объяснение решённых задач, описание полученных решений (4 – 5 мин.).
+   - Демонстрация разработанного макета, устройства, средств, программы (1 мин.).
+   - Заключение, выводы (по пунктам) (1 – 1,5 мин.).
+4. В заключении должны содержаться выводы по каждому этапу (задаче исследования), выполненной в работе, выводы по работе в целом и оценку эффективности. Необходимо подчеркнуть научную, практическую ценность результатов работы, степень внедрения, дать рекомендации по дальнейшему совершенствованию системы, технологии, метода.
+5. Пример содержания заключения приведен в приложении Л.</t>
+  </si>
+  <si>
+    <t>Ответ верный и полный, без избыточной генерации.</t>
   </si>
 </sst>
 </file>
@@ -714,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,4 +1699,634 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="107.28515625" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <f>C2+D2+E2</f>
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2">
+        <f>(AVERAGE(F:F))*100/8</f>
+        <v>70.572916666666657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F25" si="0">C3+D3+E3</f>
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>